--- a/server/assets/Material_type_import.xlsx
+++ b/server/assets/Material_type_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\30.06.24\All КОД\Образец\Ресурсы\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\30.06.24\All КОД\Для БОМ\2\Ресурсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E65CD-1D4A-465E-9B34-8E9C72F065F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA2FE4E-36FE-4673-AFDF-D55E743D3EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="22104" windowHeight="10104" xr2:uid="{F6DE2CE5-3BF9-479F-AB06-307CD7BF117D}"/>
+    <workbookView xWindow="4788" yWindow="24" windowWidth="18000" windowHeight="11460" xr2:uid="{B7822DB7-BBF6-4BF2-B9C3-2987E8FD6BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_type_import" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Тип материала</t>
   </si>
@@ -42,26 +42,23 @@
     <t xml:space="preserve">Процент брака материала </t>
   </si>
   <si>
-    <t>Тип материала 1</t>
-  </si>
-  <si>
-    <t>Тип материала 2</t>
-  </si>
-  <si>
-    <t>Тип материала 3</t>
-  </si>
-  <si>
-    <t>Тип материала 4</t>
-  </si>
-  <si>
-    <t>Тип материала 5</t>
+    <t>Бумага</t>
+  </si>
+  <si>
+    <t>Краска</t>
+  </si>
+  <si>
+    <t>Клей</t>
+  </si>
+  <si>
+    <t>Дисперсия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +70,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -100,9 +104,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -417,65 +423,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9243EC11-B3E2-4F05-AE69-D2110C39C348}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116984A0-5779-4953-9D26-99E3890E5665}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>1E-3</v>
+      <c r="B2" s="2">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>9.4999999999999998E-3</v>
+      <c r="B3" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.8E-3</v>
+      <c r="B4" s="2">
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3.3999999999999998E-3</v>
+      <c r="B5" s="2">
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
